--- a/2.xlsx
+++ b/2.xlsx
@@ -2,31 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Version 2.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B3F27-FABB-4765-8E87-8E268F1FE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{989592F8-802A-439A-9000-FAA108F1BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B24 Exit" sheetId="1" r:id="rId1"/>
-    <sheet name="B24 Continue" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>B24closeBTN_1_t2_c.img</t>
+    <t>B24startBTN_1_t2_c.img</t>
   </si>
   <si>
-    <t>B24pauseBTN_1_t0_c.img</t>
+    <t>B24playBTN_1_t0_c.img</t>
   </si>
   <si>
     <t>B24icon_1_t0_c.img</t>
@@ -36,12 +35,6 @@
   </si>
   <si>
     <t>B24close_1_t0_c.img</t>
-  </si>
-  <si>
-    <t>B24startBTN_1_t2_c.img</t>
-  </si>
-  <si>
-    <t>B24playBTN_1_t0_c.img</t>
   </si>
 </sst>
 </file>
@@ -54,7 +47,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -72,12 +64,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -95,55 +100,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -168,17 +143,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2295525" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 8" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310F18A5-0DF4-44FE-A0D4-07015E951A35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,419 +167,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="171450"/>
-          <a:ext cx="2162175" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="247650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1171575" y="1047750"/>
-          <a:ext cx="276225" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="219075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543300" y="247650"/>
-          <a:ext cx="914400" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3067050" y="1000125"/>
-          <a:ext cx="2162175" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="247650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3838575" y="1800225"/>
-          <a:ext cx="276225" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="276225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="247650"/>
-          <a:ext cx="304800" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5743575" y="1019175"/>
-          <a:ext cx="2162175" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="247650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6448425" y="1809750"/>
-          <a:ext cx="276225" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="219075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="1076325"/>
-          <a:ext cx="914400" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 17" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="1790700"/>
-          <a:ext cx="2162175" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="247650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9324975" y="2638425"/>
-          <a:ext cx="276225" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2295525" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="76200"/>
+          <a:off x="266700" y="104775"/>
           <a:ext cx="2295525" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -624,10 +187,10 @@
     <xdr:ext cx="276225" cy="247650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+        <xdr:cNvPr id="3" name="Image 9" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F53B8B-EDAA-47EB-A737-CD2247BE4ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -661,10 +224,10 @@
     <xdr:ext cx="990600" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+        <xdr:cNvPr id="4" name="Image 10" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6FDF64-F6DF-44AD-A9AA-E3B5B247DBE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -698,10 +261,10 @@
     <xdr:ext cx="2295525" cy="314325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+        <xdr:cNvPr id="5" name="Image 11" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6590270D-119D-4E10-BF6D-8A154FD56BEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,10 +298,10 @@
     <xdr:ext cx="276225" cy="247650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+        <xdr:cNvPr id="6" name="Image 12" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99E77F6-03FC-4D36-BFA1-F2B62E4122E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -772,10 +335,10 @@
     <xdr:ext cx="304800" cy="276225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+        <xdr:cNvPr id="7" name="Image 13" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926747A4-324D-4DA5-8417-D4742F4E357E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,10 +372,10 @@
     <xdr:ext cx="2295525" cy="314325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+        <xdr:cNvPr id="8" name="Image 14" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3280D568-E743-42CC-BD32-2089DAC3885F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,10 +409,10 @@
     <xdr:ext cx="276225" cy="247650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+        <xdr:cNvPr id="9" name="Image 15" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AD7514-DF5D-4BEF-8757-C03F82568EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,10 +446,10 @@
     <xdr:ext cx="990600" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+        <xdr:cNvPr id="10" name="Image 16" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B040263B-10FB-4211-97E1-C7336A7482E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,10 +483,10 @@
     <xdr:ext cx="2295525" cy="314325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 17" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+        <xdr:cNvPr id="11" name="Image 17" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C25B437-0C69-4BF5-9656-D791E23DA271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,10 +520,10 @@
     <xdr:ext cx="276225" cy="247650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+        <xdr:cNvPr id="12" name="Image 18" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE018BC7-C584-4B6D-ADBD-BBF247782B7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,9 +551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1004,7 +567,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1016,7 +579,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1028,12 +591,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1063,29 +626,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1115,26 +661,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,24 +812,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDA4CFA-0ABD-4389-9F10-39722DAEB5EE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.7109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="40.7109375" style="6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="41.28515625" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1310,99 +835,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.140625" style="4"/>
-    <col min="3" max="3" width="42.140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="40.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
